--- a/reference/BOM/PreIgition.xlsx
+++ b/reference/BOM/PreIgition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -37,184 +37,178 @@
     <t xml:space="preserve">THT</t>
   </si>
   <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAJA106K016RNJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22uf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2,C4,C6,C8,C10,C24,C27,C29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1uF / 100nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1,C3,C5,C7,C9,C13,C15,C26,C28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19,C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11,C12,C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470PF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11,R12,R15,R16,R21,R23,R24,R29,R30,R39,R40,R50,R51,R57,R58,R59,R60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9,R10,R13,R14,R35,R36,R37,R38,R48,R49,R55,R56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2,R4,R6,R8,R22,R41,R64,R65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25,R27,R31,R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R54,R63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1,R3,R61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOIC-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULN2003ADR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO-263-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM2940CSX-5.0/NOPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below THT Parts</t>
+  </si>
+  <si>
     <t xml:space="preserve">C14</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAJC476K006RNJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAJC106K035RNJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22uf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2,C4,C6,C8,C10,C24,C27,C29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1uF / 100nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1,C3,C5,C7,C9,C13,C15,C26,C28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19,C25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11,C12,C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470PF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11,R12,R15,R16,R21,R23,R24,R29,R30,R39,R40,R50,R51,R57,R58,R59,R60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9,R10,R13,R14,R35,R36,R37,R38,R48,R49,R55,R56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2,R4,R6,R8,R22,R41,R64,R65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R25,R27,R31,R32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R54,R63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1,R3,R61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49K</t>
+    <t xml:space="preserve">47UF TANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERZ-V14D220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1,Q2,Q3,Q4,Q5,Q6,Q7,Q8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STP75NS04Z or STP62NS04Z</t>
   </si>
   <si>
     <t xml:space="preserve">IC1,IC2</t>
   </si>
   <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC4424AVOA713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOIC-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ULN2003ADR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO-263-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LM2940CSX-5.0/NOPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below THT Parts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERZ-V14D220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1,Q2,Q3,Q4,Q5,Q6,Q7,Q8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STP75NS04Z or STP62NS04Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP721APP</t>
+    <t xml:space="preserve">4424 OR EQUIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC SOMETHING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP721</t>
   </si>
   <si>
     <t xml:space="preserve">MPX4250AP</t>
@@ -340,13 +334,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="37:37"/>
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="69.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.52"/>
@@ -378,22 +372,22 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -407,10 +401,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -424,7 +418,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -438,7 +432,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -452,7 +446,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -462,214 +456,228 @@
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -687,46 +695,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>66</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/reference/BOM/PreIgition.xlsx
+++ b/reference/BOM/PreIgition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -169,16 +169,13 @@
     <t xml:space="preserve">ULN2003ADR</t>
   </si>
   <si>
+    <t xml:space="preserve">Below THT Parts</t>
+  </si>
+  <si>
     <t xml:space="preserve">U1</t>
   </si>
   <si>
-    <t xml:space="preserve">TO-263-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LM2940CSX-5.0/NOPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below THT Parts</t>
+    <t xml:space="preserve">LM2490-5.0</t>
   </si>
   <si>
     <t xml:space="preserve">C14</t>
@@ -205,7 +202,7 @@
     <t xml:space="preserve">4424 OR EQUIV</t>
   </si>
   <si>
-    <t xml:space="preserve">IC SOMETHING</t>
+    <t xml:space="preserve">IC4,IC5</t>
   </si>
   <si>
     <t xml:space="preserve">SP721</t>
@@ -337,7 +334,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,65 +463,79 @@
         <v>25</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
@@ -533,62 +544,48 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -596,94 +593,94 @@
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="1" t="n">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>1</v>
@@ -692,35 +689,35 @@
         <v>4</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
